--- a/Employee_Reports35/Joe Peter Angustia Pimentel Q0618.xlsx
+++ b/Employee_Reports35/Joe Peter Angustia Pimentel Q0618.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1335,11 +1335,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1384,11 +1384,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1433,11 +1433,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">

--- a/Employee_Reports35/Joe Peter Angustia Pimentel Q0618.xlsx
+++ b/Employee_Reports35/Joe Peter Angustia Pimentel Q0618.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Stretch Wrapper (DFW Trainings)</t>
+          <t>Reach Truck R16 (DFW Trainings)</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-003</t>
+          <t xml:space="preserve">LSME-QDF-M-002 </t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -995,20 +995,20 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>26-Oct-2025</t>
+          <t>30-Oct-2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>26-Oct-2027</t>
+          <t>30-Oct-2027</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Counter Balance Truck E-15 (DFW Trainings)</t>
+          <t>Stretch Wrapper (DFW Trainings)</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-005</t>
+          <t>LSME-QDF-M-003</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1044,20 +1044,20 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>27-Oct-2025</t>
+          <t>26-Oct-2025</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>27-Oct-2027</t>
+          <t>26-Oct-2027</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Bin Conveyor System (DFW Trainings)</t>
+          <t>Counter Balance Truck E-15 (DFW Trainings)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-007</t>
+          <t>LSME-QDF-M-005</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1093,20 +1093,20 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2025</t>
+          <t>27-Oct-2025</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2027</t>
+          <t>27-Oct-2027</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Pallet Conveyor System (DFW Trainings)</t>
+          <t>Order Picker (DFW Trainings)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-008</t>
+          <t>LSME-QDF-M-006</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1142,20 +1142,20 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>27-Oct-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>27-Oct-2027</t>
+          <t>03-Nov-2027</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Pallet Stacker L-14 (DFW Trainings)</t>
+          <t>Bin Conveyor System (DFW Trainings)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-010</t>
+          <t>LSME-QDF-M-007</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>27-Oct-2025</t>
+          <t>28-Oct-2025</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>27-Oct-2027</t>
+          <t>28-Oct-2027</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Bin Hoist S-Type (DFW Trainings)</t>
+          <t>Pallet Conveyor System (DFW Trainings)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-011</t>
+          <t>LSME-QDF-M-008</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1240,20 +1240,20 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2025</t>
+          <t>27-Oct-2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2027</t>
+          <t>27-Oct-2027</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MHE Battery &amp; Chargers (DFW Trainings)</t>
+          <t>Pallet Stacker L-14 (DFW Trainings)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>LSME-QDF-M-016</t>
+          <t>LSME-QDF-M-010</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1289,20 +1289,20 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>29-Oct-2025</t>
+          <t>27-Oct-2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>29-Oct-2027</t>
+          <t>27-Oct-2027</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1318,28 +1318,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Maintenance Work Guide For New Member (DFW Trainings)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
+          <t>Bin Hoist S-Type (DFW Trainings)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>QDFWH</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>LSME-QDF-M-011</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>23-Oct-2025</t>
+          <t>28-Oct-2025</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>23-Oct-2027</t>
+          <t>28-Oct-2027</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1355,40 +1367,40 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
+          <t>MHE Battery &amp; Chargers (DFW Trainings)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>ELECTRICAL SAFETY</t>
+          <t>QDFWH</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>LSME-OHS-SOP-021</t>
+          <t>LSME-QDF-M-016</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>SOP</t>
+          <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>20-Oct-2025</t>
+          <t>29-Oct-2025</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>20-Oct-2026</t>
+          <t>29-Oct-2027</t>
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>350</v>
+        <v>723</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1404,48 +1416,134 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
+          <t>Maintenance Work Guide For New Member (DFW Trainings)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>23-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>23-Oct-2027</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>717</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>20-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>20-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>349</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
           <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>DFWH</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>LSME-QDF-SOP-003</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>29-Oct-2025</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>29-Oct-2026</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
-        <v>359</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>358</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
